--- a/Expense Split Model.xlsx
+++ b/Expense Split Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javed\OneDrive\Desktop\Model\neew module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World wide Finance Amazon\loop\screen share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{E66FD177-FA3C-4831-98AE-AB45CA1DBE43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6AA45D52-5F61-4BC4-ABF5-3FB574559B1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70050E5-513B-45D3-9789-DF3F97CBA473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{C232F0B0-389C-41CF-8519-08E0717890B9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>paid</t>
   </si>
@@ -247,10 +247,22 @@
     <t>EXPENDITURE SPLIT MODEL</t>
   </si>
   <si>
-    <t>EXPENDITURE SPLIT MODEL - INSTRUCTIONS</t>
+    <t>You can add who were involved for a particular expense and the people who needs to be added to a particular expense can be controlled/modified.</t>
   </si>
   <si>
-    <t>You can add who were involved for a particular expense and the people who needs to be added to a particular expense can be controlled/modified.</t>
+    <t>This is a very simple model built by me for my personal use to split the expenses. This model can be optimized to split the expenses in a project or an enterpirse setup</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>BACKGROUND</t>
+  </si>
+  <si>
+    <t>EXPENSE SPLIT MODEL</t>
+  </si>
+  <si>
+    <t>EXPENSE SPLIT MODEL - INSTRUCTIONS</t>
   </si>
 </sst>
 </file>
@@ -664,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1079,6 +1091,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1657,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD84429-3712-4A76-982D-2629B7A5A732}">
-  <dimension ref="C3:S31"/>
+  <dimension ref="C3:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:S8"/>
@@ -1675,7 +1702,7 @@
     <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C4" s="139" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
@@ -1789,93 +1816,93 @@
       <c r="R9" s="124"/>
       <c r="S9" s="125"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="180"/>
+      <c r="D10" s="184" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="182"/>
+    </row>
+    <row r="11" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="180"/>
+      <c r="D11" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="182"/>
+    </row>
+    <row r="12" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="180"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="182"/>
+    </row>
+    <row r="13" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="180"/>
+      <c r="D13" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="181"/>
+      <c r="S13" s="182"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1893,113 +1920,113 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="128"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="137"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="131">
-        <v>1</v>
-      </c>
-      <c r="D16" s="129" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="128"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="137"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="131">
+        <v>1</v>
+      </c>
+      <c r="D20" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="130"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="131"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="130"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="131">
-        <v>2</v>
-      </c>
-      <c r="D18" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="130"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="131"/>
-      <c r="D19" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="130"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="131"/>
-      <c r="D20" s="129"/>
       <c r="E20" s="129"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -2017,12 +2044,8 @@
       <c r="S20" s="130"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="131">
-        <v>3</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>57</v>
-      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="129"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -2040,9 +2063,11 @@
       <c r="S21" s="130"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="131"/>
+      <c r="C22" s="131">
+        <v>2</v>
+      </c>
       <c r="D22" s="129" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
@@ -2063,7 +2088,7 @@
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="131"/>
       <c r="D23" s="129" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="129"/>
@@ -2083,9 +2108,7 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="131"/>
-      <c r="D24" s="129" t="s">
-        <v>60</v>
-      </c>
+      <c r="D24" s="129"/>
       <c r="E24" s="129"/>
       <c r="F24" s="129"/>
       <c r="G24" s="129"/>
@@ -2103,8 +2126,12 @@
       <c r="S24" s="130"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="131"/>
-      <c r="D25" s="129"/>
+      <c r="C25" s="131">
+        <v>3</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="129"/>
       <c r="F25" s="129"/>
       <c r="G25" s="129"/>
@@ -2122,11 +2149,9 @@
       <c r="S25" s="130"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="131">
-        <v>4</v>
-      </c>
+      <c r="C26" s="131"/>
       <c r="D26" s="129" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="129"/>
@@ -2146,7 +2171,9 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="131"/>
-      <c r="D27" s="129"/>
+      <c r="D27" s="129" t="s">
+        <v>59</v>
+      </c>
       <c r="E27" s="129"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -2164,11 +2191,9 @@
       <c r="S27" s="130"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="131">
-        <v>5</v>
-      </c>
+      <c r="C28" s="131"/>
       <c r="D28" s="129" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E28" s="129"/>
       <c r="F28" s="129"/>
@@ -2206,8 +2231,12 @@
       <c r="S29" s="130"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C30" s="132"/>
-      <c r="D30" s="129"/>
+      <c r="C30" s="131">
+        <v>4</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>61</v>
+      </c>
       <c r="E30" s="129"/>
       <c r="F30" s="129"/>
       <c r="G30" s="129"/>
@@ -2224,24 +2253,104 @@
       <c r="R30" s="129"/>
       <c r="S30" s="130"/>
     </row>
-    <row r="31" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="135"/>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C31" s="131"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="130"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C32" s="131">
+        <v>5</v>
+      </c>
+      <c r="D32" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="130"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C33" s="131"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="130"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C34" s="132"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="130"/>
+    </row>
+    <row r="35" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="134"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2278,7 +2387,7 @@
     <row r="1" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:22" x14ac:dyDescent="0.3">
       <c r="H2" s="145" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I2" s="146"/>
       <c r="J2" s="146"/>
@@ -2750,7 +2859,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I2" sqref="I2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3711,7 +3820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE947623-D8DE-4B20-9A6C-E6D2020BC7B4}">
   <dimension ref="B2:CS278"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
